--- a/Sprint/Splint20/Sprint20 Unet_model.xlsx
+++ b/Sprint/Splint20/Sprint20 Unet_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takatoshi\DiveIntoCode\Git\diveintocode-ml\Sprint\Splint20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8D46E8-70A3-4CA1-947C-7446FBF13B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884841B5-8FCB-4805-8AEA-7B40CE4DE5AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{8CF578A5-AB1F-4023-8A06-A59EB743751D}"/>
+    <workbookView xWindow="-28395" yWindow="1485" windowWidth="28635" windowHeight="14085" xr2:uid="{8CF578A5-AB1F-4023-8A06-A59EB743751D}"/>
   </bookViews>
   <sheets>
     <sheet name="ResNet-EncoderDecoder" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="276">
   <si>
     <t xml:space="preserve">Layer (type)                    Output Shape         Param #     Connected to                     </t>
   </si>
@@ -643,12 +643,6 @@
     <t xml:space="preserve">center_activation (PReLU)       (None, 7, 7, 512)    25088       center_bn[0][0]                  </t>
   </si>
   <si>
-    <t xml:space="preserve">concatenate_1 (Concatenate)     (None, 7, 7, 2560)   0           center_activation[0][0]          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                 res5c_branch2c[0][0]             </t>
-  </si>
-  <si>
     <t xml:space="preserve">decoder4_conv (Conv2D)          (None, 7, 7, 256)    5898496     concatenate_1[0][0]              </t>
   </si>
   <si>
@@ -661,12 +655,6 @@
     <t xml:space="preserve">up_sampling2d_1 (UpSampling2D)  (None, 14, 14, 256)  0           decoder4_activation[0][0]        </t>
   </si>
   <si>
-    <t xml:space="preserve">concatenate_2 (Concatenate)     (None, 14, 14, 1280) 0           up_sampling2d_1[0][0]            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                 res4f_branch2c[0][0]             </t>
-  </si>
-  <si>
     <t xml:space="preserve">decoder3_conv (Conv2D)          (None, 14, 14, 128)  1474688     concatenate_2[0][0]              </t>
   </si>
   <si>
@@ -679,9 +667,6 @@
     <t xml:space="preserve">up_sampling2d_2 (UpSampling2D)  (None, 28, 28, 128)  0           decoder3_activation[0][0]        </t>
   </si>
   <si>
-    <t xml:space="preserve">concatenate_3 (Concatenate)     (None, 28, 28, 640)  0           up_sampling2d_2[0][0]            </t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                                 res3d_branch2c[0][0]             </t>
   </si>
   <si>
@@ -697,9 +682,6 @@
     <t xml:space="preserve">up_sampling2d_3 (UpSampling2D)  (None, 56, 56, 64)   0           decoder2_activation[0][0]        </t>
   </si>
   <si>
-    <t xml:space="preserve">concatenate_4 (Concatenate)     (None, 56, 56, 320)  0           up_sampling2d_3[0][0]            </t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                                 res2c_branch2c[0][0]             </t>
   </si>
   <si>
@@ -713,9 +695,6 @@
   </si>
   <si>
     <t xml:space="preserve">up_sampling2d_4 (UpSampling2D)  (None, 112, 112, 64) 0           decoder1_activation[0][0]        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">concatenate_5 (Concatenate)     (None, 112, 112, 128 0           up_sampling2d_4[0][0]            </t>
   </si>
   <si>
     <t xml:space="preserve">                                                                 conv1[0][0]                      </t>
@@ -893,6 +872,38 @@
   </si>
   <si>
     <t>ResNet-EncoderDecoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res5c_branch2c (Conv2D)         (None, 7, 7, 2048)   1050624     activation_48[0][0]              </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 res5c_branch2c[0][0]             </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 res4f_branch2c[0][0]             </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">concatenate_1 (Concatenate)     (None, 7, 7, 2560)   0           center_activation[0][0]          </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">concatenate_2 (Concatenate)     (None, 14, 14, 1280) 0           up_sampling2d_1[0][0]            </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">concatenate_3 (Concatenate)     (None, 28, 28, 640)  0           up_sampling2d_2[0][0]            </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">concatenate_4 (Concatenate)     (None, 56, 56, 320)  0           up_sampling2d_3[0][0]            </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">concatenate_5 (Concatenate)     (None, 112, 112, 128 0           up_sampling2d_4[0][0]            </t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2364,8 +2375,8 @@
   </sheetPr>
   <dimension ref="B1:K481"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="F272" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F5" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2381,7 +2392,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="F1" s="44" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
@@ -2401,7 +2412,7 @@
         <v>197</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="32.4" x14ac:dyDescent="0.45">
@@ -2416,7 +2427,7 @@
         <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="32.4" x14ac:dyDescent="0.45">
@@ -2440,7 +2451,7 @@
         <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="32.4" x14ac:dyDescent="0.45">
@@ -2464,7 +2475,7 @@
         <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
@@ -2489,7 +2500,7 @@
         <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
@@ -2517,7 +2528,7 @@
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -2546,7 +2557,7 @@
         <v>54</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.45">
@@ -2569,16 +2580,16 @@
         <v>8</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H17" s="5">
         <v>52</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
@@ -2593,7 +2604,7 @@
         <v>51</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
@@ -2623,7 +2634,7 @@
         <v>49</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.45">
@@ -3136,7 +3147,7 @@
         <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.45">
@@ -3166,7 +3177,7 @@
         <v>45</v>
       </c>
       <c r="I89" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.45">
@@ -3196,7 +3207,7 @@
         <v>43</v>
       </c>
       <c r="I91" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.45">
@@ -3219,16 +3230,16 @@
         <v>3</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H93" s="5">
         <v>41</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.45">
@@ -3243,7 +3254,7 @@
         <v>40</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.45">
@@ -3273,7 +3284,7 @@
         <v>38</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.45">
@@ -3959,7 +3970,7 @@
         <v>36</v>
       </c>
       <c r="I188" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.45">
@@ -3987,7 +3998,7 @@
         <v>34</v>
       </c>
       <c r="I190" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.45">
@@ -4017,7 +4028,7 @@
         <v>32</v>
       </c>
       <c r="I192" s="15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J192" s="15"/>
       <c r="K192" s="15"/>
@@ -4044,16 +4055,16 @@
         <v>3</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G194" s="39" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H194" s="5">
         <v>30</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.45">
@@ -4068,7 +4079,7 @@
         <v>29</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.45">
@@ -4098,7 +4109,7 @@
         <v>27</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.45">
@@ -5362,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="I326" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="327" spans="2:10" x14ac:dyDescent="0.45">
@@ -5390,7 +5401,7 @@
         <v>23</v>
       </c>
       <c r="I328" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="329" spans="2:10" x14ac:dyDescent="0.45">
@@ -5419,7 +5430,7 @@
         <v>21</v>
       </c>
       <c r="I330" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="331" spans="2:10" x14ac:dyDescent="0.45">
@@ -5443,16 +5454,16 @@
         <v>3</v>
       </c>
       <c r="F332" s="8" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G332" s="39" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H332" s="5">
         <v>19</v>
       </c>
       <c r="I332" s="5" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
     </row>
     <row r="333" spans="2:10" x14ac:dyDescent="0.45">
@@ -5467,7 +5478,7 @@
         <v>18</v>
       </c>
       <c r="I333" s="5" t="s">
-        <v>207</v>
+        <v>272</v>
       </c>
     </row>
     <row r="334" spans="2:10" x14ac:dyDescent="0.45">
@@ -5497,7 +5508,7 @@
         <v>16</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="336" spans="2:10" x14ac:dyDescent="0.45">
@@ -6013,7 +6024,7 @@
         <v>14</v>
       </c>
       <c r="I403" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="404" spans="2:9" x14ac:dyDescent="0.45">
@@ -6041,7 +6052,7 @@
         <v>12</v>
       </c>
       <c r="I405" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="406" spans="2:9" x14ac:dyDescent="0.45">
@@ -6069,7 +6080,7 @@
         <v>10</v>
       </c>
       <c r="I407" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="408" spans="2:9" x14ac:dyDescent="0.45">
@@ -6094,13 +6105,13 @@
         <v>189</v>
       </c>
       <c r="G409" s="39" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H409" s="5">
         <v>8</v>
       </c>
       <c r="I409" s="5" t="s">
-        <v>202</v>
+        <v>269</v>
       </c>
     </row>
     <row r="410" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -6115,7 +6126,7 @@
         <v>7</v>
       </c>
       <c r="I410" s="5" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
     </row>
     <row r="411" spans="2:9" x14ac:dyDescent="0.45">
@@ -6163,7 +6174,7 @@
     </row>
     <row r="416" spans="2:9" ht="32.4" x14ac:dyDescent="0.45">
       <c r="G416" s="20" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H416">
         <v>1</v>
@@ -6530,8 +6541,8 @@
   </sheetPr>
   <dimension ref="A1:C727"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A202" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C398" sqref="C398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6543,7 +6554,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="40" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42"/>
@@ -6555,10 +6566,10 @@
     </row>
     <row r="3" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
@@ -6566,15 +6577,15 @@
         <v>0</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -6582,7 +6593,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -6590,43 +6601,43 @@
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="22"/>
       <c r="C8" s="35" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="22"/>
       <c r="C9" s="35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="22"/>
       <c r="C10" s="35" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="22"/>
       <c r="C11" s="35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="22"/>
       <c r="C12" s="36" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="31"/>
       <c r="C13" s="36" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -6634,7 +6645,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -6642,18 +6653,18 @@
         <v>3</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="24" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -6662,7 +6673,7 @@
       </c>
       <c r="B17" s="43"/>
       <c r="C17" s="37" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -6706,7 +6717,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -6714,7 +6725,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -6722,7 +6733,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -6730,7 +6741,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -6738,7 +6749,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -6746,7 +6757,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -6754,7 +6765,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -6762,7 +6773,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
@@ -7107,13 +7118,13 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="24" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
@@ -7122,7 +7133,7 @@
       </c>
       <c r="B92" s="43"/>
       <c r="C92" s="37" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
@@ -7172,7 +7183,7 @@
         <v>45</v>
       </c>
       <c r="C100" s="36" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
@@ -7180,7 +7191,7 @@
         <v>3</v>
       </c>
       <c r="C101" s="36" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
@@ -7188,7 +7199,7 @@
         <v>46</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
@@ -7196,7 +7207,7 @@
         <v>3</v>
       </c>
       <c r="C103" s="35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
@@ -7204,7 +7215,7 @@
         <v>47</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
@@ -7212,7 +7223,7 @@
         <v>3</v>
       </c>
       <c r="C105" s="35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
@@ -7220,7 +7231,7 @@
         <v>48</v>
       </c>
       <c r="C106" s="35" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
@@ -7228,7 +7239,7 @@
         <v>3</v>
       </c>
       <c r="C107" s="35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
@@ -7683,13 +7694,13 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" s="24" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B185" s="43" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
@@ -7698,7 +7709,7 @@
       </c>
       <c r="B186" s="43"/>
       <c r="C186" s="37" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
@@ -7748,7 +7759,7 @@
         <v>91</v>
       </c>
       <c r="C194" s="36" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
@@ -7756,7 +7767,7 @@
         <v>3</v>
       </c>
       <c r="C195" s="36" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
@@ -7764,7 +7775,7 @@
         <v>92</v>
       </c>
       <c r="C196" s="35" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
@@ -7772,7 +7783,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.45">
@@ -7780,7 +7791,7 @@
         <v>93</v>
       </c>
       <c r="C198" s="35" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
@@ -7788,7 +7799,7 @@
         <v>3</v>
       </c>
       <c r="C199" s="35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.45">
@@ -7796,7 +7807,7 @@
         <v>94</v>
       </c>
       <c r="C200" s="35" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.45">
@@ -7804,7 +7815,7 @@
         <v>3</v>
       </c>
       <c r="C201" s="35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.45">
@@ -8519,13 +8530,13 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A323" s="24" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B323" s="43" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C323" s="37" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.45">
@@ -8534,7 +8545,7 @@
       </c>
       <c r="B324" s="43"/>
       <c r="C324" s="37" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.45">
@@ -8961,13 +8972,13 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A398" s="24" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="B398" s="43" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C398" s="37" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -8976,7 +8987,7 @@
       </c>
       <c r="B399" s="43"/>
       <c r="C399" s="38" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.45">
@@ -9973,7 +9984,7 @@
     <mergeCell ref="B323:B324"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.23" right="0.28999999999999998" top="0.53" bottom="0.35" header="0.3" footer="0.21"/>
+  <pageMargins left="0.55000000000000004" right="0.28999999999999998" top="0.53" bottom="0.35" header="0.3" footer="0.21"/>
   <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
